--- a/devices_data.xlsx
+++ b/devices_data.xlsx
@@ -31,198 +31,177 @@
     <t>Label</t>
   </si>
   <si>
-    <t>MyAppServerThatHasARackButNoRU</t>
-  </si>
-  <si>
-    <t>Flex system</t>
+    <t>PP:B117</t>
+  </si>
+  <si>
+    <t>48-Pair Fiber Panel</t>
+  </si>
+  <si>
+    <t>{MDF}</t>
+  </si>
+  <si>
+    <t>{NC State University}</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>PP:B118</t>
+  </si>
+  <si>
+    <t>PP:B128</t>
+  </si>
+  <si>
+    <t>PP:MDF</t>
+  </si>
+  <si>
+    <t>{Butler Communications}</t>
+  </si>
+  <si>
+    <t>{D. S. Weaver Labs}</t>
+  </si>
+  <si>
+    <t>{Grinnells Lab}</t>
+  </si>
+  <si>
+    <t>dmi01-akron-pdu01</t>
+  </si>
+  <si>
+    <t>AP7901</t>
+  </si>
+  <si>
+    <t>{DM-Akron}</t>
+  </si>
+  <si>
+    <t>{Dunder-Mifflin, Inc.}</t>
+  </si>
+  <si>
+    <t>dmi01-akron-rtr01</t>
+  </si>
+  <si>
+    <t>ISR 1111-8P</t>
+  </si>
+  <si>
+    <t>dmi01-akron-sw01</t>
+  </si>
+  <si>
+    <t>C9200-48P</t>
+  </si>
+  <si>
+    <t>dmi01-albany-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Albany}</t>
+  </si>
+  <si>
+    <t>dmi01-albany-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-albany-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-binghamton-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Binghamton}</t>
+  </si>
+  <si>
+    <t>dmi01-binghamton-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-binghamton-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-buffalo-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Buffalo}</t>
+  </si>
+  <si>
+    <t>dmi01-buffalo-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-buffalo-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-camden-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Camden}</t>
+  </si>
+  <si>
+    <t>dmi01-camden-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-camden-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-nashua-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Nashua}</t>
+  </si>
+  <si>
+    <t>dmi01-nashua-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-nashua-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-pittsfield-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Pittsfield}</t>
+  </si>
+  <si>
+    <t>dmi01-pittsfield-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-pittsfield-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-rochester-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Rochester}</t>
+  </si>
+  <si>
+    <t>dmi01-rochester-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-rochster-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-scranton-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Scranton}</t>
+  </si>
+  <si>
+    <t>dmi01-scranton-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-scranton-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-stamford-pdu01</t>
+  </si>
+  <si>
+    <t>{DM-Stamford}</t>
+  </si>
+  <si>
+    <t>dmi01-stamford-rtr01</t>
+  </si>
+  <si>
+    <t>dmi01-stamford-sw01</t>
+  </si>
+  <si>
+    <t>dmi01-syracuse-pdu01</t>
   </si>
   <si>
     <t>{DM-Syracuse}</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>PP:B117</t>
-  </si>
-  <si>
-    <t>48-Pair Fiber Panel</t>
-  </si>
-  <si>
-    <t>{MDF}</t>
-  </si>
-  <si>
-    <t>{NC State University}</t>
-  </si>
-  <si>
-    <t>PP:B118</t>
-  </si>
-  <si>
-    <t>PP:B128</t>
-  </si>
-  <si>
-    <t>PP:MDF</t>
-  </si>
-  <si>
-    <t>{Butler Communications}</t>
-  </si>
-  <si>
-    <t>{D. S. Weaver Labs}</t>
-  </si>
-  <si>
-    <t>{Grinnells Lab}</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>C9200-48P</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>dmi01-akron-pdu01</t>
-  </si>
-  <si>
-    <t>AP7901</t>
-  </si>
-  <si>
-    <t>{DM-Akron}</t>
-  </si>
-  <si>
-    <t>{Dunder-Mifflin, Inc.}</t>
-  </si>
-  <si>
-    <t>dmi01-akron-rtr01</t>
-  </si>
-  <si>
-    <t>ISR 1111-8P</t>
-  </si>
-  <si>
-    <t>dmi01-akron-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-albany-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Albany}</t>
-  </si>
-  <si>
-    <t>dmi01-albany-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-albany-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-binghamton-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Binghamton}</t>
-  </si>
-  <si>
-    <t>dmi01-binghamton-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-binghamton-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-buffalo-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Buffalo}</t>
-  </si>
-  <si>
-    <t>dmi01-buffalo-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-buffalo-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-camden-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Camden}</t>
-  </si>
-  <si>
-    <t>dmi01-camden-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-camden-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-nashua-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Nashua}</t>
-  </si>
-  <si>
-    <t>dmi01-nashua-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-nashua-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-pittsfield-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Pittsfield}</t>
-  </si>
-  <si>
-    <t>dmi01-pittsfield-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-pittsfield-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-rochester-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Rochester}</t>
-  </si>
-  <si>
-    <t>dmi01-rochester-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-rochster-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-scranton-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Scranton}</t>
-  </si>
-  <si>
-    <t>dmi01-scranton-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-scranton-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-stamford-pdu01</t>
-  </si>
-  <si>
-    <t>{DM-Stamford}</t>
-  </si>
-  <si>
-    <t>dmi01-stamford-rtr01</t>
-  </si>
-  <si>
-    <t>dmi01-stamford-sw01</t>
-  </si>
-  <si>
-    <t>dmi01-syracuse-pdu01</t>
-  </si>
-  <si>
     <t>dmi01-syracuse-rtr01</t>
   </si>
   <si>
@@ -251,6 +230,27 @@
   </si>
   <si>
     <t>dmi01-yonkers-sw01</t>
+  </si>
+  <si>
+    <t>ncsu-coreswitch1</t>
+  </si>
+  <si>
+    <t>EX9214</t>
+  </si>
+  <si>
+    <t>ncsu-coreswitch2</t>
+  </si>
+  <si>
+    <t>ncsu117-distswitch1</t>
+  </si>
+  <si>
+    <t>QFX5110-48S-4C</t>
+  </si>
+  <si>
+    <t>ncsu118-distswitch1</t>
+  </si>
+  <si>
+    <t>ncsu128-distswitch1</t>
   </si>
 </sst>
 </file>
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -613,16 +613,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -630,16 +630,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -647,16 +647,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -664,16 +664,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -684,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -704,10 +704,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -718,13 +718,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -749,16 +749,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -766,16 +766,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -783,16 +783,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -800,16 +800,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -817,16 +817,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -834,16 +834,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -860,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -868,16 +868,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -885,16 +885,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -911,7 +911,7 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -919,16 +919,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -936,16 +936,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -962,7 +962,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -970,16 +970,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -987,16 +987,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1013,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1021,16 +1021,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1038,16 +1038,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1064,7 +1064,7 @@
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1089,16 +1089,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -1115,7 +1115,7 @@
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1123,16 +1123,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -1166,7 +1166,7 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1174,16 +1174,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -1217,7 +1217,7 @@
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1242,16 +1242,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1276,16 +1276,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1293,16 +1293,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1330,13 +1330,13 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1344,16 +1344,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1364,13 +1364,13 @@
         <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1381,13 +1381,13 @@
         <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -1398,13 +1398,13 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -1415,13 +1415,13 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
